--- a/medicine/Enfance/Arnold_Lobel/Arnold_Lobel.xlsx
+++ b/medicine/Enfance/Arnold_Lobel/Arnold_Lobel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Stark Lobel, né le 22 mai 1933 et mort le 4 décembre 1987, est un dessinateur, auteur et illustrateur américain de littérature jeunesse (dont le célèbre Hulul, hibou solitaire et fantasque).
 </t>
@@ -511,7 +523,9 @@
           <t>Inspiration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnages d'Arnold Lobel sont principalement des animaux, souvent anthropomorphisés ou vivant dans un monde d'humains. La manière de dessiner d'Arnold Lobel correspond au ton de ses contes : les personnages sont touchants et attirent sympathie et compassion. Les histoires sont souvent courtes, simples et touchent à un quotidien merveilleux ou étrange du point de vue des personnages mais non du lecteur : dans Hulul, le hibou naïf a peur des inquiétantes bosses que font ses pieds sous sa couverture, ou bien, voyant la Lune toujours visible, il croit qu'elle le suit dans sa promenade nocturne et s'en fait une amie. Dans Porculus, il raconte avec humour l'histoire d'un petit cochon qui adore se plonger dans la boue.
 Dans toutes ses œuvres, on retrouve une tendresse et une originalité par l'intermédiaire des animaux, propre à lui.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auteur et illustrateur de : 
 Jean le Géant (original : Giant John), 1964
